--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.011320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Spring.011320.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2683,12 +2683,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3215,12 +3215,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3253,12 +3253,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4659,12 +4659,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5659,12 +5659,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6583,12 +6583,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7005,12 +7005,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7237,12 +7237,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7541,12 +7541,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7769,12 +7769,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8377,12 +8377,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8415,12 +8415,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8453,12 +8453,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
